--- a/JumpingJax_bible.xlsx
+++ b/JumpingJax_bible.xlsx
@@ -1,31 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiexin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\JJ-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1648F619-C712-4A45-8130-36FECF51B57E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="people" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Sabien Jarmin</t>
+  </si>
+  <si>
+    <t>Austin Carlin</t>
+  </si>
+  <si>
+    <t>3D designer, modeler</t>
+  </si>
+  <si>
+    <t>Daniel Lin</t>
+  </si>
+  <si>
+    <t>UI designer</t>
+  </si>
+  <si>
+    <t>Oliver Ionescu</t>
+  </si>
+  <si>
+    <t>Junior Unity developer</t>
+  </si>
+  <si>
+    <t>Priscilla Hui</t>
+  </si>
+  <si>
+    <t>UX designer</t>
+  </si>
+  <si>
+    <t>Maciej Fuhrmann</t>
+  </si>
+  <si>
+    <t>Unity developer</t>
+  </si>
+  <si>
+    <t>Will Lambert</t>
+  </si>
+  <si>
+    <t>Fardeen Chowdhury</t>
+  </si>
+  <si>
+    <t>Production consultant</t>
+  </si>
+  <si>
+    <t>Marla Menendez Posada</t>
+  </si>
+  <si>
+    <t>2D concept artist</t>
+  </si>
+  <si>
+    <t>Game director, lead Unity developer, level designer</t>
+  </si>
+  <si>
+    <t>Levente Biro</t>
+  </si>
+  <si>
+    <t>Lead level designer</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Level designer</t>
+  </si>
+  <si>
+    <t>Total num. Of people:</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +123,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,12 +170,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -335,13 +491,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9">
+        <f>COUNTIF(D2:D33,"*")</f>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A37:C37"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/JumpingJax_bible.xlsx
+++ b/JumpingJax_bible.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\JJ-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1648F619-C712-4A45-8130-36FECF51B57E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171811D6-4D6D-435D-890B-5DD368255548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Sabien Jarmin</t>
   </si>
   <si>
-    <t>Austin Carlin</t>
-  </si>
-  <si>
     <t>3D designer, modeler</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Total num. Of people:</t>
+  </si>
+  <si>
+    <t>Austin "Vextin"</t>
   </si>
 </sst>
 </file>
@@ -207,10 +207,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,7 +495,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,97 +521,97 @@
         <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="F12" s="6"/>
     </row>
@@ -721,12 +721,12 @@
       <c r="F33" s="6"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9">
+      <c r="A37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="8">
         <f>COUNTIF(D2:D33,"*")</f>
         <v>11</v>
       </c>

--- a/JumpingJax_bible.xlsx
+++ b/JumpingJax_bible.xlsx
@@ -1,40 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\JJ-Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171811D6-4D6D-435D-890B-5DD368255548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25200" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -48,6 +28,12 @@
     <t>Sabien Jarmin</t>
   </si>
   <si>
+    <t>Game director, lead Unity developer, level designer</t>
+  </si>
+  <si>
+    <t>Austin "Vextin"</t>
+  </si>
+  <si>
     <t>3D designer, modeler</t>
   </si>
   <si>
@@ -90,47 +76,207 @@
     <t>2D concept artist</t>
   </si>
   <si>
-    <t>Game director, lead Unity developer, level designer</t>
-  </si>
-  <si>
     <t>Levente Biro</t>
   </si>
   <si>
     <t>Lead level designer</t>
   </si>
   <si>
+    <t>Joined 2020-09-04</t>
+  </si>
+  <si>
     <t>Kevin</t>
   </si>
   <si>
     <t>Level designer</t>
   </si>
   <si>
+    <t>Lily lastname</t>
+  </si>
+  <si>
+    <t>Joined 2020-11-05</t>
+  </si>
+  <si>
     <t>Total num. Of people:</t>
-  </si>
-  <si>
-    <t>Austin "Vextin"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +307,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -172,58 +504,344 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -272,7 +890,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,7 +925,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,254 +1099,257 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="36.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="36.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:6">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="4:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D2" s="2" t="s">
+    <row r="2" ht="30" spans="4:6">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="4:6">
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="4:6">
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="4:6">
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
+      <c r="E10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="D14" s="4"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="D15" s="4"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="D16" s="4"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="4"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="4"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="4"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="4"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="4"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="4"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="4"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" s="4"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="4"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="D26" s="4"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="D27" s="4"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="4:6">
+      <c r="D28" s="4"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="4:6">
+      <c r="D29" s="4"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="4:6">
+      <c r="D30" s="4"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="D31" s="4"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="4:6">
+      <c r="D32" s="4"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="D33" s="4"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9">
+        <f>COUNTIF(D2:D33,"*")</f>
         <v>12</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="2"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="2"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="2"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D30" s="2"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="2"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="2"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="2"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8">
-        <f>COUNTIF(D2:D33,"*")</f>
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -736,6 +1357,7 @@
     <mergeCell ref="A37:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/JumpingJax_bible.xlsx
+++ b/JumpingJax_bible.xlsx
@@ -91,7 +91,7 @@
     <t>Level designer</t>
   </si>
   <si>
-    <t>Lily lastname</t>
+    <t>Lilyan Victoria Montes Garay</t>
   </si>
   <si>
     <t>Joined 2020-11-05</t>
@@ -105,12 +105,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,50 +126,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,15 +163,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,9 +195,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,52 +218,50 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -276,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,37 +302,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,145 +458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,8 +511,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,50 +567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -615,151 +581,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,7 +1083,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>

--- a/JumpingJax_bible.xlsx
+++ b/JumpingJax_bible.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\JJ-Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AE0164-4522-48F9-9D8F-CFBAD519CA8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12060"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -103,14 +120,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,152 +135,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,176 +167,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -492,251 +191,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -756,67 +213,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1074,23 +487,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="36.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="36.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="36.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:6">
@@ -1104,7 +520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="4:6">
+    <row r="2" spans="4:6" ht="30">
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1311,18 +727,18 @@
       <c r="E32" s="7"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="4:6">
+    <row r="33" spans="1:6">
       <c r="D33" s="4"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="8">
         <f>COUNTIF(D2:D33,"*")</f>
         <v>12</v>
       </c>
@@ -1331,8 +747,7 @@
   <mergeCells count="1">
     <mergeCell ref="A37:C37"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape"/>
-  <headerFooter/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/JumpingJax_bible.xlsx
+++ b/JumpingJax_bible.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\JJ-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AE0164-4522-48F9-9D8F-CFBAD519CA8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92055845-CBC7-4CB1-AE3B-421457F8F97A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Joined 2020-09-04</t>
   </si>
   <si>
-    <t>Kevin</t>
-  </si>
-  <si>
     <t>Level designer</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>Total num. Of people:</t>
+  </si>
+  <si>
+    <t>Kevin Nilsson</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -614,22 +614,22 @@
     </row>
     <row r="12" spans="4:6">
       <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="4:6">
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="4:6">
@@ -734,7 +734,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>

--- a/JumpingJax_bible.xlsx
+++ b/JumpingJax_bible.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\JJ-Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ambid\Documents\Coding\JJ-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92055845-CBC7-4CB1-AE3B-421457F8F97A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C04D1CA-9E88-473A-A818-CE8F870A4620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32895" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t>Kevin Nilsson</t>
+  </si>
+  <si>
+    <t>Max "Hoots" Hooton</t>
+  </si>
+  <si>
+    <t>Zech Birkel</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Shane "Vhespir"</t>
+  </si>
+  <si>
+    <t>Music</t>
   </si>
 </sst>
 </file>
@@ -499,7 +514,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -633,18 +648,30 @@
       </c>
     </row>
     <row r="14" spans="4:6">
-      <c r="D14" s="4"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="4:6">
-      <c r="D15" s="4"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="4:6">
-      <c r="D16" s="4"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="4:6">
@@ -740,7 +767,7 @@
       <c r="C37" s="9"/>
       <c r="D37" s="8">
         <f>COUNTIF(D2:D33,"*")</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/JumpingJax_bible.xlsx
+++ b/JumpingJax_bible.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\JJ-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92055845-CBC7-4CB1-AE3B-421457F8F97A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83017470-AAB2-4A3B-B68D-62ABD9C2EC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Kevin Nilsson</t>
+  </si>
+  <si>
+    <t>Max "Hoots" Hooton</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -633,8 +636,12 @@
       </c>
     </row>
     <row r="14" spans="4:6">
-      <c r="D14" s="4"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="4:6">
@@ -740,7 +747,7 @@
       <c r="C37" s="9"/>
       <c r="D37" s="8">
         <f>COUNTIF(D2:D33,"*")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/JumpingJax_bible.xlsx
+++ b/JumpingJax_bible.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\JJ-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83017470-AAB2-4A3B-B68D-62ABD9C2EC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD464E1-6C9B-4864-ADCF-06FCFC6BD780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>Joined 2020-09-04</t>
   </si>
   <si>
-    <t>Level designer</t>
-  </si>
-  <si>
     <t>Lilyan Victoria Montes Garay</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Max "Hoots" Hooton</t>
+  </si>
+  <si>
+    <t>Junior level designer</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -617,27 +617,27 @@
     </row>
     <row r="12" spans="4:6">
       <c r="D12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="4:6">
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="4:6">
       <c r="D14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>

--- a/JumpingJax_bible.xlsx
+++ b/JumpingJax_bible.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\JJ-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD464E1-6C9B-4864-ADCF-06FCFC6BD780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0171D19A-1BC7-4CA4-8F5C-A0E5C246F1B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -118,18 +118,31 @@
   </si>
   <si>
     <t>Junior level designer</t>
+  </si>
+  <si>
+    <t>Zech Birkel</t>
+  </si>
+  <si>
+    <t>QA tester</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,12 +211,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -221,6 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,7 +516,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -645,8 +659,12 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="4:6">
-      <c r="D15" s="4"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="4:6">
@@ -747,7 +765,7 @@
       <c r="C37" s="9"/>
       <c r="D37" s="8">
         <f>COUNTIF(D2:D33,"*")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/JumpingJax_bible.xlsx
+++ b/JumpingJax_bible.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\JJ-Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ambid\Documents\Coding\JJ-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0171D19A-1BC7-4CA4-8F5C-A0E5C246F1B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAA5805-F372-433B-ACD5-551148EF7CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="2385" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Sabien Jarmin</t>
-  </si>
-  <si>
     <t>Game director, lead Unity developer, level designer</t>
   </si>
   <si>
@@ -124,6 +121,33 @@
   </si>
   <si>
     <t>QA tester</t>
+  </si>
+  <si>
+    <t>Shane "Vhespir"</t>
+  </si>
+  <si>
+    <t>Composer</t>
+  </si>
+  <si>
+    <t>Logan "Ryver" Fairbairn</t>
+  </si>
+  <si>
+    <t>Character artist</t>
+  </si>
+  <si>
+    <t>Sabien "ambid" Jarmin</t>
+  </si>
+  <si>
+    <t>"esvento"</t>
+  </si>
+  <si>
+    <t>catarina</t>
+  </si>
+  <si>
+    <t>Concept artist</t>
+  </si>
+  <si>
+    <t>Sophie "Spoot"</t>
   </si>
 </sst>
 </file>
@@ -231,10 +255,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,8 +539,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -539,157 +563,177 @@
     </row>
     <row r="2" spans="4:6" ht="30">
       <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="4:6">
       <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="4:6">
       <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="4:6">
       <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="4:6">
       <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="4:6">
       <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="4:6">
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="4:6">
       <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="4:6">
       <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="4:6">
       <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="4:6">
       <c r="D12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="4:6">
       <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="4:6">
       <c r="D14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="4:6">
       <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="D16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="4:6">
-      <c r="D16" s="4"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="4:6">
-      <c r="D17" s="4"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="4:6">
-      <c r="D18" s="4"/>
-      <c r="E18" s="7"/>
+      <c r="D18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="4:6">
-      <c r="D19" s="4"/>
-      <c r="E19" s="7"/>
+      <c r="D19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="4:6">
-      <c r="D20" s="4"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="4:6">
@@ -758,14 +802,14 @@
       <c r="F33" s="6"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+      <c r="A37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="8">
         <f>COUNTIF(D2:D33,"*")</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/JumpingJax_bible.xlsx
+++ b/JumpingJax_bible.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ambid\Documents\Coding\JJ-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAA5805-F372-433B-ACD5-551148EF7CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E034798-5327-42EB-AE1D-908AE4A05011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5445" yWindow="2385" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,13 +141,13 @@
     <t>"esvento"</t>
   </si>
   <si>
-    <t>catarina</t>
-  </si>
-  <si>
     <t>Concept artist</t>
   </si>
   <si>
     <t>Sophie "Spoot"</t>
+  </si>
+  <si>
+    <t>Catarina "catrlarbeno" Belarmino</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -720,19 +720,19 @@
     </row>
     <row r="19" spans="4:6">
       <c r="D19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="6"/>
     </row>

--- a/JumpingJax_bible.xlsx
+++ b/JumpingJax_bible.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ambid\Documents\Coding\JJ-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E034798-5327-42EB-AE1D-908AE4A05011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E76E6A2-BCDD-4EBA-9452-78413C434D3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5445" yWindow="2385" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Game director, lead Unity developer, level designer</t>
   </si>
   <si>
-    <t>Austin "Vextin"</t>
-  </si>
-  <si>
     <t>3D designer, modeler</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>Total num. Of people:</t>
   </si>
   <si>
-    <t>Kevin Nilsson</t>
-  </si>
-  <si>
     <t>Max "Hoots" Hooton</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>QA tester</t>
   </si>
   <si>
-    <t>Shane "Vhespir"</t>
-  </si>
-  <si>
     <t>Composer</t>
   </si>
   <si>
@@ -144,10 +135,25 @@
     <t>Concept artist</t>
   </si>
   <si>
-    <t>Sophie "Spoot"</t>
-  </si>
-  <si>
     <t>Catarina "catrlarbeno" Belarmino</t>
+  </si>
+  <si>
+    <t>Drew Doyle</t>
+  </si>
+  <si>
+    <t>Building artist</t>
+  </si>
+  <si>
+    <t>Kevin "Potato" Nilsson</t>
+  </si>
+  <si>
+    <t>Austin "Vextin" Carlin</t>
+  </si>
+  <si>
+    <t>Shane "Vhespir" Nichols</t>
+  </si>
+  <si>
+    <t>Sophie "Spoot" Leeson</t>
   </si>
 </sst>
 </file>
@@ -540,7 +546,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -563,7 +569,7 @@
     </row>
     <row r="2" spans="4:6" ht="30">
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>3</v>
@@ -572,173 +578,177 @@
     </row>
     <row r="3" spans="4:6">
       <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="4:6">
       <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="4:6">
       <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="4:6">
       <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="4:6">
       <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="4:6">
       <c r="D8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="4:6">
       <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="4:6">
       <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="4:6">
       <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="4:6">
       <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="4:6">
       <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="4:6">
       <c r="D14" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="4:6">
       <c r="D15" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="4:6">
       <c r="D16" s="4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="4:6">
       <c r="D17" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="D21" s="4"/>
-      <c r="E21" s="7"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="4:6">
@@ -803,13 +813,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="8">
         <f>COUNTIF(D2:D33,"*")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/JumpingJax_bible.xlsx
+++ b/JumpingJax_bible.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ambid\Documents\Coding\JJ-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E76E6A2-BCDD-4EBA-9452-78413C434D3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788AB708-531E-42F8-84F8-3BB6DE94D2E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5445" yWindow="2385" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -154,18 +154,28 @@
   </si>
   <si>
     <t>Sophie "Spoot" Leeson</t>
+  </si>
+  <si>
+    <t>Robert Michael Alaniz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,12 +251,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -261,10 +271,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +557,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -752,8 +763,12 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="4:6">
-      <c r="D22" s="4"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="4:6">
@@ -819,7 +834,7 @@
       <c r="C37" s="10"/>
       <c r="D37" s="8">
         <f>COUNTIF(D2:D33,"*")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/JumpingJax_bible.xlsx
+++ b/JumpingJax_bible.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ambid\Documents\Coding\JJ-Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\JJ-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788AB708-531E-42F8-84F8-3BB6DE94D2E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235662E2-BB0F-4076-9E68-648B88B8E0E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="2385" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -272,10 +272,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,10 +555,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -567,7 +568,7 @@
     <col min="6" max="6" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:6">
+    <row r="1" spans="4:15">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="4:6" ht="30">
+    <row r="2" spans="4:15" ht="15" customHeight="1">
       <c r="D2" s="4" t="s">
         <v>31</v>
       </c>
@@ -586,8 +587,17 @@
         <v>3</v>
       </c>
       <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="4:6">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="4:15">
       <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
@@ -596,7 +606,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="4:6">
+    <row r="4" spans="4:15">
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -605,7 +615,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="4:6">
+    <row r="5" spans="4:15">
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
@@ -614,7 +624,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="4:6">
+    <row r="6" spans="4:15">
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
@@ -623,7 +633,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="4:6">
+    <row r="7" spans="4:15">
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
@@ -632,7 +642,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="4:6">
+    <row r="8" spans="4:15">
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
@@ -641,7 +651,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="4:6">
+    <row r="9" spans="4:15">
       <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
@@ -650,7 +660,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="4:6">
+    <row r="10" spans="4:15">
       <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
@@ -659,7 +669,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="4:6">
+    <row r="11" spans="4:15">
       <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
@@ -670,7 +680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="4:6">
+    <row r="12" spans="4:15">
       <c r="D12" s="4" t="s">
         <v>37</v>
       </c>
@@ -679,7 +689,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="4:6">
+    <row r="13" spans="4:15">
       <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
@@ -690,7 +700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="4:6">
+    <row r="14" spans="4:15">
       <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
@@ -699,7 +709,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="4:6">
+    <row r="15" spans="4:15">
       <c r="D15" s="4" t="s">
         <v>26</v>
       </c>
@@ -708,7 +718,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="4:6">
+    <row r="16" spans="4:15">
       <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
@@ -766,7 +776,7 @@
       <c r="D22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="6"/>
@@ -827,11 +837,11 @@
       <c r="F33" s="6"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="8">
         <f>COUNTIF(D2:D33,"*")</f>
         <v>21</v>

--- a/JumpingJax_bible.xlsx
+++ b/JumpingJax_bible.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\JJ-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235662E2-BB0F-4076-9E68-648B88B8E0E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2326FBB-0ED0-4442-B32F-D22C9E591A9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>Robert Michael Alaniz</t>
+  </si>
+  <si>
+    <t>Daniel Robnik</t>
+  </si>
+  <si>
+    <t>3D modeler</t>
   </si>
 </sst>
 </file>
@@ -273,10 +279,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,7 +564,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -587,15 +593,15 @@
         <v>3</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="4:15">
       <c r="D3" s="4" t="s">
@@ -782,8 +788,12 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="4:6">
-      <c r="D23" s="4"/>
-      <c r="E23" s="7"/>
+      <c r="D23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="4:6">
@@ -837,14 +847,14 @@
       <c r="F33" s="6"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="8">
         <f>COUNTIF(D2:D33,"*")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/JumpingJax_bible.xlsx
+++ b/JumpingJax_bible.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\JJ-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2326FBB-0ED0-4442-B32F-D22C9E591A9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2357D9-3B95-488E-9E35-6174FAAEB6E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,13 +564,13 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="5" max="5" width="100.7109375" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/JumpingJax_bible.xlsx
+++ b/JumpingJax_bible.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\JJ-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2357D9-3B95-488E-9E35-6174FAAEB6E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73E8F50-9BD7-4D68-B487-9B5D0DBE3E76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7020" yWindow="2130" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -163,18 +163,31 @@
   </si>
   <si>
     <t>3D modeler</t>
+  </si>
+  <si>
+    <t>Marco Valente</t>
+  </si>
+  <si>
+    <t>Unity gameplay programmer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,12 +270,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -277,12 +290,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,8 +577,8 @@
   </sheetPr>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -797,8 +811,12 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="4:6">
-      <c r="D24" s="4"/>
-      <c r="E24" s="7"/>
+      <c r="D24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="4:6">
@@ -854,7 +872,7 @@
       <c r="C37" s="12"/>
       <c r="D37" s="8">
         <f>COUNTIF(D2:D33,"*")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/JumpingJax_bible.xlsx
+++ b/JumpingJax_bible.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\JJ-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73E8F50-9BD7-4D68-B487-9B5D0DBE3E76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6147CD-C86A-4D0C-93CF-B1F7BB796BEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="2130" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
     <t>Marco Valente</t>
   </si>
   <si>
-    <t>Unity gameplay programmer</t>
+    <t>Unity tools developer</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
